--- a/két kör_int.xlsx
+++ b/két kör_int.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Veres István\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Csaba\oktatás\VIR1 nappali\LAB\MAT\02_location\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B3D32A-890D-487B-BFE0-58B8D9E799E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="210" windowWidth="11100" windowHeight="6350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="térkép" sheetId="2" r:id="rId1"/>
     <sheet name="két kör" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'két kör'!$B$10:$B$11,'két kör'!$B$20:$B$21,'két kör'!$D$29:$O$29,'két kör'!$Q$34</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
@@ -35,9 +33,8 @@
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'két kör'!$Q$34</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel0" localSheetId="1" hidden="1">1</definedName>
@@ -46,7 +43,7 @@
     <definedName name="solver_rel3" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_rhs0" localSheetId="1" hidden="1">'két kör'!#REF!</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">"bináris"</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">bináris</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'két kör'!$Q$34</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">bináris</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">bináris</definedName>
@@ -56,30 +53,17 @@
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>x1</t>
   </si>
@@ -226,12 +210,15 @@
   </si>
   <si>
     <t>Választott körrel való lefedéshez szükséges sugár</t>
+  </si>
+  <si>
+    <t>Nagy távolság</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -319,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -556,21 +543,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,8 +587,8 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -615,42 +616,48 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -663,6 +670,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -947,357 +964,716 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I4:AV24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="9:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="9:48" x14ac:dyDescent="0.2">
-      <c r="I5" s="1">
+    <row r="4" spans="9:48" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="9:48" x14ac:dyDescent="0.25">
+      <c r="I5" s="2">
         <f t="shared" ref="I5:I15" si="0">I6+1</f>
         <v>12</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="30"/>
-      <c r="AL5" s="30"/>
-      <c r="AM5" s="30"/>
-      <c r="AN5" s="30"/>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="30"/>
-      <c r="AQ5" s="30"/>
-      <c r="AR5" s="30"/>
-      <c r="AS5" s="30"/>
-      <c r="AT5" s="30"/>
-      <c r="AU5" s="30"/>
-      <c r="AV5" s="32"/>
-    </row>
-    <row r="6" spans="9:48" x14ac:dyDescent="0.2">
-      <c r="I6" s="1">
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="34"/>
+    </row>
+    <row r="6" spans="9:48" x14ac:dyDescent="0.25">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="AV6" s="34"/>
-    </row>
-    <row r="7" spans="9:48" x14ac:dyDescent="0.2">
-      <c r="I7" s="1">
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="36"/>
+      <c r="AT6" s="36"/>
+      <c r="AU6" s="36"/>
+      <c r="AV6" s="37"/>
+    </row>
+    <row r="7" spans="9:48" x14ac:dyDescent="0.25">
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="AB7" s="35"/>
-      <c r="AO7" s="35"/>
-      <c r="AV7" s="34"/>
-    </row>
-    <row r="8" spans="9:48" x14ac:dyDescent="0.2">
-      <c r="I8" s="1">
+      <c r="J7" s="35"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="36"/>
+      <c r="AT7" s="36"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="37"/>
+    </row>
+    <row r="8" spans="9:48" x14ac:dyDescent="0.25">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="AV8" s="34"/>
-    </row>
-    <row r="9" spans="9:48" x14ac:dyDescent="0.2">
-      <c r="I9" s="1">
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="36"/>
+      <c r="AQ8" s="36"/>
+      <c r="AR8" s="36"/>
+      <c r="AS8" s="36"/>
+      <c r="AT8" s="36"/>
+      <c r="AU8" s="36"/>
+      <c r="AV8" s="37"/>
+    </row>
+    <row r="9" spans="9:48" x14ac:dyDescent="0.25">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="AG9" s="35"/>
-      <c r="AV9" s="34"/>
-    </row>
-    <row r="10" spans="9:48" x14ac:dyDescent="0.2">
-      <c r="I10" s="1">
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="37"/>
+    </row>
+    <row r="10" spans="9:48" x14ac:dyDescent="0.25">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="U10" s="35"/>
-      <c r="AN10" s="35"/>
-      <c r="AR10" s="35"/>
-      <c r="AV10" s="34"/>
-    </row>
-    <row r="11" spans="9:48" x14ac:dyDescent="0.2">
-      <c r="I11" s="1">
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="38"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="36"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="37"/>
+    </row>
+    <row r="11" spans="9:48" x14ac:dyDescent="0.25">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="AV11" s="34"/>
-    </row>
-    <row r="12" spans="9:48" x14ac:dyDescent="0.2">
-      <c r="I12" s="1">
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="36"/>
+      <c r="AT11" s="36"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="37"/>
+    </row>
+    <row r="12" spans="9:48" x14ac:dyDescent="0.25">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="O12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AK12" s="35"/>
-      <c r="AV12" s="34"/>
-    </row>
-    <row r="13" spans="9:48" x14ac:dyDescent="0.2">
-      <c r="I13" s="1">
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="37"/>
+    </row>
+    <row r="13" spans="9:48" x14ac:dyDescent="0.25">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J13" s="33"/>
-      <c r="AV13" s="34"/>
-    </row>
-    <row r="14" spans="9:48" x14ac:dyDescent="0.2">
-      <c r="I14" s="1">
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="36"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="37"/>
+    </row>
+    <row r="14" spans="9:48" x14ac:dyDescent="0.25">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="AE14" s="35"/>
-      <c r="AV14" s="34"/>
-    </row>
-    <row r="15" spans="9:48" x14ac:dyDescent="0.2">
-      <c r="I15" s="1">
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="36"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="37"/>
+    </row>
+    <row r="15" spans="9:48" x14ac:dyDescent="0.25">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="35"/>
-      <c r="AV15" s="34"/>
-    </row>
-    <row r="16" spans="9:48" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="1">
+      <c r="J15" s="35"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="36"/>
+      <c r="AQ15" s="36"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="36"/>
+      <c r="AU15" s="36"/>
+      <c r="AV15" s="37"/>
+    </row>
+    <row r="16" spans="9:48" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="2">
         <f>I17+1</f>
         <v>1</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="37"/>
-      <c r="AS16" s="37"/>
-      <c r="AT16" s="37"/>
-      <c r="AU16" s="37"/>
-      <c r="AV16" s="38"/>
-    </row>
-    <row r="17" spans="9:48" x14ac:dyDescent="0.2">
-      <c r="I17" s="1">
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="41"/>
+      <c r="AM16" s="41"/>
+      <c r="AN16" s="41"/>
+      <c r="AO16" s="41"/>
+      <c r="AP16" s="41"/>
+      <c r="AQ16" s="41"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="41"/>
+      <c r="AT16" s="41"/>
+      <c r="AU16" s="41"/>
+      <c r="AV16" s="42"/>
+    </row>
+    <row r="17" spans="9:48" x14ac:dyDescent="0.25">
+      <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <f>I17+1</f>
         <v>1</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <f>J17+1</f>
         <v>2</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="2">
         <f t="shared" ref="L17:AV17" si="1">K17+1</f>
         <v>3</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AA17" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AB17" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AC17" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AD17" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AE17" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AF17" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AG17" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AH17" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AI17" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AJ17" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AK17" s="2">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AL17" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AM17" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AN17" s="1">
+      <c r="AN17" s="2">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="AO17" s="1">
+      <c r="AO17" s="2">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="AP17" s="1">
+      <c r="AP17" s="2">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="AQ17" s="1">
+      <c r="AQ17" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="AR17" s="1">
+      <c r="AR17" s="2">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="AS17" s="1">
+      <c r="AS17" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="AT17" s="1">
+      <c r="AT17" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AU17" s="1">
+      <c r="AU17" s="2">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="AV17" s="1">
+      <c r="AV17" s="2">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="9:48" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:48" x14ac:dyDescent="0.25">
       <c r="K23">
         <v>2</v>
       </c>
@@ -1307,7 +1683,7 @@
       <c r="U23">
         <v>12</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="1">
         <v>14</v>
       </c>
       <c r="Z23">
@@ -1322,6 +1698,7 @@
       <c r="AG23">
         <v>24</v>
       </c>
+      <c r="AJ23" s="1"/>
       <c r="AK23">
         <v>28</v>
       </c>
@@ -1335,7 +1712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="9:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:48" x14ac:dyDescent="0.25">
       <c r="K24">
         <v>2</v>
       </c>
@@ -1345,7 +1722,7 @@
       <c r="U24">
         <v>7</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="1">
         <v>12</v>
       </c>
       <c r="Z24">
@@ -1360,6 +1737,7 @@
       <c r="AG24">
         <v>8</v>
       </c>
+      <c r="AJ24" s="1"/>
       <c r="AK24">
         <v>5</v>
       </c>
@@ -1379,925 +1757,855 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="3" customWidth="1"/>
-    <col min="5" max="7" width="8.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
-    <col min="9" max="13" width="8.7109375" style="2" customWidth="1"/>
-    <col min="14" max="15" width="8.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="12.7109375" style="2"/>
+    <col min="1" max="2" width="8.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="5" customWidth="1"/>
+    <col min="5" max="7" width="8.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="5" customWidth="1"/>
+    <col min="9" max="13" width="8.7265625" style="3" customWidth="1"/>
+    <col min="14" max="15" width="8.7265625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="2.7265625" style="4" customWidth="1"/>
+    <col min="17" max="18" width="8.7265625" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="12.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:17" s="4" customFormat="1" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
+    <row r="1" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" s="7" customFormat="1" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="4"/>
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="6">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="57"/>
+    </row>
+    <row r="3" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="9">
         <v>2</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="10">
         <v>6</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="10">
         <v>12</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="10">
         <v>14</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="10">
         <v>17</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="9">
         <v>19</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="10">
         <v>22</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>24</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="10">
         <v>28</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="10">
         <v>31</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="9">
         <v>32</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="9">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="8">
+      <c r="Q3" s="75"/>
+      <c r="R3" s="76"/>
+    </row>
+    <row r="4" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="11">
         <v>2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="12">
         <v>5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="12">
         <v>7</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="12">
         <v>12</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="12">
         <v>5</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="11">
         <v>10</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="12">
         <v>3</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="12">
         <v>8</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="12">
         <v>5</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="12">
         <v>7</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="11">
         <v>10</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="Q4" s="72"/>
+      <c r="R4" s="73">
         <v>40</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:18" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="39">
+    <row r="10" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="44">
+        <v>26.998355262588515</v>
+      </c>
+      <c r="D10" s="20">
+        <f>D$3-$B10</f>
+        <v>-24.998355262588515</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" ref="E10:O10" si="0">E$3-$B10</f>
+        <v>-20.998355262588515</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="0"/>
+        <v>-14.998355262588515</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="0"/>
+        <v>-12.998355262588515</v>
+      </c>
+      <c r="H10" s="21">
+        <f t="shared" si="0"/>
+        <v>-9.9983552625885146</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="0"/>
+        <v>-7.9983552625885146</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="0"/>
+        <v>-4.9983552625885146</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="0"/>
+        <v>-2.9983552625885146</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="0"/>
+        <v>1.0016447374114854</v>
+      </c>
+      <c r="M10" s="21">
+        <f t="shared" si="0"/>
+        <v>4.0016447374114854</v>
+      </c>
+      <c r="N10" s="21">
+        <f t="shared" si="0"/>
+        <v>5.0016447374114854</v>
+      </c>
+      <c r="O10" s="22">
+        <f t="shared" si="0"/>
+        <v>8.0016447374114854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="45">
+        <v>8.4912282058597945</v>
+      </c>
+      <c r="D11" s="23">
+        <f>D$4-$B11</f>
+        <v>-6.4912282058597945</v>
+      </c>
+      <c r="E11" s="24">
+        <f t="shared" ref="E11:O11" si="1">E$4-$B11</f>
+        <v>-3.4912282058597945</v>
+      </c>
+      <c r="F11" s="24">
+        <f t="shared" si="1"/>
+        <v>-1.4912282058597945</v>
+      </c>
+      <c r="G11" s="24">
+        <f t="shared" si="1"/>
+        <v>3.5087717941402055</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" si="1"/>
+        <v>-3.4912282058597945</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="1"/>
+        <v>1.5087717941402055</v>
+      </c>
+      <c r="J11" s="24">
+        <f t="shared" si="1"/>
+        <v>-5.4912282058597945</v>
+      </c>
+      <c r="K11" s="24">
+        <f t="shared" si="1"/>
+        <v>-0.49122820585979454</v>
+      </c>
+      <c r="L11" s="24">
+        <f t="shared" si="1"/>
+        <v>-3.4912282058597945</v>
+      </c>
+      <c r="M11" s="24">
+        <f t="shared" si="1"/>
+        <v>-1.4912282058597945</v>
+      </c>
+      <c r="N11" s="24">
+        <f t="shared" si="1"/>
+        <v>1.5087717941402055</v>
+      </c>
+      <c r="O11" s="25">
+        <f t="shared" si="1"/>
+        <v>-1.4912282058597945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
+      <c r="Q13" s="48"/>
+    </row>
+    <row r="14" spans="1:18" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="28">
+        <f>SQRT(SUMSQ(D10:D11))</f>
+        <v>25.827384874491973</v>
+      </c>
+      <c r="E14" s="29">
+        <f t="shared" ref="E14:O14" si="2">SQRT(SUMSQ(E10:E11))</f>
+        <v>21.286606073286315</v>
+      </c>
+      <c r="F14" s="29">
+        <f t="shared" si="2"/>
+        <v>15.07230646400107</v>
+      </c>
+      <c r="G14" s="29">
+        <f t="shared" si="2"/>
+        <v>13.463607207424628</v>
+      </c>
+      <c r="H14" s="29">
+        <f t="shared" si="2"/>
+        <v>10.590362710612061</v>
+      </c>
+      <c r="I14" s="29">
+        <f t="shared" si="2"/>
+        <v>8.1394151653156523</v>
+      </c>
+      <c r="J14" s="29">
+        <f t="shared" si="2"/>
+        <v>7.4254388786035053</v>
+      </c>
+      <c r="K14" s="29">
+        <f t="shared" si="2"/>
+        <v>3.0383283941872499</v>
+      </c>
+      <c r="L14" s="29">
+        <f t="shared" si="2"/>
+        <v>3.632074691601912</v>
+      </c>
+      <c r="M14" s="29">
+        <f t="shared" si="2"/>
+        <v>4.2704709537011087</v>
+      </c>
+      <c r="N14" s="29">
+        <f t="shared" si="2"/>
+        <v>5.2242552010855157</v>
+      </c>
+      <c r="O14" s="30">
+        <f t="shared" si="2"/>
+        <v>8.1394152164450198</v>
+      </c>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="49"/>
+    </row>
+    <row r="15" spans="1:18" s="19" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="4"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="48"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q16" s="43"/>
+    </row>
+    <row r="17" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="Q17" s="43"/>
+    </row>
+    <row r="18" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="43"/>
+    </row>
+    <row r="19" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="43"/>
+    </row>
+    <row r="20" spans="1:17" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="44">
+        <v>9.0543789392301957</v>
+      </c>
+      <c r="D20" s="20">
+        <f>D$3-$B20</f>
+        <v>-7.0543789392301957</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" ref="E20:O20" si="3">E$3-$B20</f>
+        <v>-3.0543789392301957</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="3"/>
+        <v>2.9456210607698043</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="3"/>
+        <v>4.9456210607698043</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="3"/>
+        <v>7.9456210607698043</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="3"/>
+        <v>9.9456210607698043</v>
+      </c>
+      <c r="J20" s="21">
+        <f t="shared" si="3"/>
+        <v>12.945621060769804</v>
+      </c>
+      <c r="K20" s="21">
+        <f t="shared" si="3"/>
+        <v>14.945621060769804</v>
+      </c>
+      <c r="L20" s="21">
+        <f t="shared" si="3"/>
+        <v>18.945621060769803</v>
+      </c>
+      <c r="M20" s="21">
+        <f t="shared" si="3"/>
+        <v>21.945621060769803</v>
+      </c>
+      <c r="N20" s="21">
+        <f t="shared" si="3"/>
+        <v>22.945621060769803</v>
+      </c>
+      <c r="O20" s="22">
+        <f t="shared" si="3"/>
+        <v>25.945621060769803</v>
+      </c>
+      <c r="Q20" s="43"/>
+    </row>
+    <row r="21" spans="1:17" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="45">
+        <v>5.7347435047562101</v>
+      </c>
+      <c r="D21" s="23">
+        <f>D$4-$B21</f>
+        <v>-3.7347435047562101</v>
+      </c>
+      <c r="E21" s="24">
+        <f t="shared" ref="E21:O21" si="4">E$4-$B21</f>
+        <v>-0.73474350475621009</v>
+      </c>
+      <c r="F21" s="24">
+        <f t="shared" si="4"/>
+        <v>1.2652564952437899</v>
+      </c>
+      <c r="G21" s="24">
+        <f t="shared" si="4"/>
+        <v>6.2652564952437899</v>
+      </c>
+      <c r="H21" s="24">
+        <f t="shared" si="4"/>
+        <v>-0.73474350475621009</v>
+      </c>
+      <c r="I21" s="24">
+        <f t="shared" si="4"/>
+        <v>4.2652564952437899</v>
+      </c>
+      <c r="J21" s="24">
+        <f t="shared" si="4"/>
+        <v>-2.7347435047562101</v>
+      </c>
+      <c r="K21" s="24">
+        <f t="shared" si="4"/>
+        <v>2.2652564952437899</v>
+      </c>
+      <c r="L21" s="24">
+        <f t="shared" si="4"/>
+        <v>-0.73474350475621009</v>
+      </c>
+      <c r="M21" s="24">
+        <f t="shared" si="4"/>
+        <v>1.2652564952437899</v>
+      </c>
+      <c r="N21" s="24">
+        <f t="shared" si="4"/>
+        <v>4.2652564952437899</v>
+      </c>
+      <c r="O21" s="25">
+        <f t="shared" si="4"/>
+        <v>1.2652564952437899</v>
+      </c>
+      <c r="Q21" s="43"/>
+    </row>
+    <row r="22" spans="1:17" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="Q22" s="43"/>
+    </row>
+    <row r="23" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="27"/>
+      <c r="Q23" s="48"/>
+    </row>
+    <row r="24" spans="1:17" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="28">
+        <f>SQRT(SUMSQ(D20:D21))</f>
+        <v>7.9820154888707933</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" ref="E24:O24" si="5">SQRT(SUMSQ(E20:E21))</f>
+        <v>3.1415089880811125</v>
+      </c>
+      <c r="F24" s="29">
+        <f t="shared" si="5"/>
+        <v>3.2058629777966536</v>
+      </c>
+      <c r="G24" s="29">
+        <f t="shared" si="5"/>
+        <v>7.9820177040598166</v>
+      </c>
+      <c r="H24" s="29">
+        <f t="shared" si="5"/>
+        <v>7.9795201647173064</v>
+      </c>
+      <c r="I24" s="29">
+        <f t="shared" si="5"/>
+        <v>10.821635331808555</v>
+      </c>
+      <c r="J24" s="29">
+        <f t="shared" si="5"/>
+        <v>13.231323693639007</v>
+      </c>
+      <c r="K24" s="29">
+        <f t="shared" si="5"/>
+        <v>15.116314890917367</v>
+      </c>
+      <c r="L24" s="29">
+        <f t="shared" si="5"/>
+        <v>18.959863011004739</v>
+      </c>
+      <c r="M24" s="29">
+        <f t="shared" si="5"/>
+        <v>21.982064455861732</v>
+      </c>
+      <c r="N24" s="29">
+        <f t="shared" si="5"/>
+        <v>23.338679029342302</v>
+      </c>
+      <c r="O24" s="30">
+        <f t="shared" si="5"/>
+        <v>25.976453303478866</v>
+      </c>
+      <c r="Q24" s="49"/>
+    </row>
+    <row r="25" spans="1:17" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="4" customFormat="1" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="1:17" s="4" customFormat="1" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="47"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="50">
         <v>0</v>
       </c>
-      <c r="D10" s="17">
-        <f>D$3-$B10</f>
-        <v>2</v>
-      </c>
-      <c r="E10" s="18">
-        <f t="shared" ref="E10:O10" si="0">E$3-$B10</f>
-        <v>6</v>
-      </c>
-      <c r="F10" s="18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G10" s="18">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="H10" s="18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="I10" s="18">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="J10" s="18">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="K10" s="18">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="L10" s="18">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="M10" s="18">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="N10" s="18">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="O10" s="19">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="40">
+      <c r="E29" s="51">
         <v>0</v>
       </c>
-      <c r="D11" s="20">
-        <f>D$4-$B11</f>
-        <v>2</v>
-      </c>
-      <c r="E11" s="21">
-        <f t="shared" ref="E11:O11" si="1">E$4-$B11</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="21">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="G11" s="21">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H11" s="21">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I11" s="21">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="21">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K11" s="21">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L11" s="21">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="M11" s="21">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="N11" s="21">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O11" s="22">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="25">
-        <f>SQRT(SUMSQ(D10:D11))</f>
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="E14" s="26">
-        <f t="shared" ref="E14:O14" si="2">SQRT(SUMSQ(E10:E11))</f>
-        <v>7.810249675906654</v>
-      </c>
-      <c r="F14" s="26">
-        <f t="shared" si="2"/>
-        <v>13.892443989449804</v>
-      </c>
-      <c r="G14" s="26">
-        <f t="shared" si="2"/>
-        <v>18.439088914585774</v>
-      </c>
-      <c r="H14" s="26">
-        <f t="shared" si="2"/>
-        <v>17.720045146669349</v>
-      </c>
-      <c r="I14" s="26">
-        <f t="shared" si="2"/>
-        <v>21.470910553583888</v>
-      </c>
-      <c r="J14" s="26">
-        <f t="shared" si="2"/>
-        <v>22.203603311174518</v>
-      </c>
-      <c r="K14" s="26">
-        <f t="shared" si="2"/>
-        <v>25.298221281347036</v>
-      </c>
-      <c r="L14" s="26">
-        <f t="shared" si="2"/>
-        <v>28.442925306655784</v>
-      </c>
-      <c r="M14" s="26">
-        <f t="shared" si="2"/>
-        <v>31.780497164141408</v>
-      </c>
-      <c r="N14" s="26">
-        <f t="shared" si="2"/>
-        <v>33.526109228480422</v>
-      </c>
-      <c r="O14" s="27">
-        <f t="shared" si="2"/>
-        <v>35.693136595149497</v>
-      </c>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="43"/>
-    </row>
-    <row r="15" spans="1:17" s="16" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="39">
+      <c r="F29" s="51">
         <v>0</v>
       </c>
-      <c r="D20" s="17">
-        <f>D$3-$B20</f>
-        <v>2</v>
-      </c>
-      <c r="E20" s="18">
-        <f t="shared" ref="E20:O20" si="3">E$3-$B20</f>
-        <v>6</v>
-      </c>
-      <c r="F20" s="18">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="G20" s="18">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="H20" s="18">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="I20" s="18">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="J20" s="18">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="K20" s="18">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="L20" s="18">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="M20" s="18">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="N20" s="18">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="O20" s="19">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="40">
+      <c r="G29" s="51">
         <v>0</v>
       </c>
-      <c r="D21" s="20">
-        <f>D$4-$B21</f>
-        <v>2</v>
-      </c>
-      <c r="E21" s="21">
-        <f t="shared" ref="E21:O21" si="4">E$4-$B21</f>
-        <v>5</v>
-      </c>
-      <c r="F21" s="21">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="G21" s="21">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="H21" s="21">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I21" s="21">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="21">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="K21" s="21">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="L21" s="21">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="M21" s="21">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="N21" s="21">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="O21" s="22">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="24"/>
-      <c r="Q23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="25">
-        <f>SQRT(SUMSQ(D20:D21))</f>
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="E24" s="26">
-        <f t="shared" ref="E24:O24" si="5">SQRT(SUMSQ(E20:E21))</f>
-        <v>7.810249675906654</v>
-      </c>
-      <c r="F24" s="26">
-        <f t="shared" si="5"/>
-        <v>13.892443989449804</v>
-      </c>
-      <c r="G24" s="26">
-        <f t="shared" si="5"/>
-        <v>18.439088914585774</v>
-      </c>
-      <c r="H24" s="26">
-        <f t="shared" si="5"/>
-        <v>17.720045146669349</v>
-      </c>
-      <c r="I24" s="26">
-        <f t="shared" si="5"/>
-        <v>21.470910553583888</v>
-      </c>
-      <c r="J24" s="26">
-        <f t="shared" si="5"/>
-        <v>22.203603311174518</v>
-      </c>
-      <c r="K24" s="26">
-        <f t="shared" si="5"/>
-        <v>25.298221281347036</v>
-      </c>
-      <c r="L24" s="26">
-        <f t="shared" si="5"/>
-        <v>28.442925306655784</v>
-      </c>
-      <c r="M24" s="26">
-        <f t="shared" si="5"/>
-        <v>31.780497164141408</v>
-      </c>
-      <c r="N24" s="26">
-        <f t="shared" si="5"/>
-        <v>33.526109228480422</v>
-      </c>
-      <c r="O24" s="27">
-        <f t="shared" si="5"/>
-        <v>35.693136595149497</v>
-      </c>
-      <c r="Q24" s="43"/>
-    </row>
-    <row r="25" spans="1:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q27" s="28">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="12"/>
-    </row>
-    <row r="29" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="42"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="44">
+      <c r="H29" s="51">
+        <v>0</v>
+      </c>
+      <c r="I29" s="51">
         <v>1</v>
       </c>
-      <c r="E29" s="45">
-        <v>0</v>
-      </c>
-      <c r="F29" s="45">
-        <v>0</v>
-      </c>
-      <c r="G29" s="45">
-        <v>0</v>
-      </c>
-      <c r="H29" s="45">
-        <v>0</v>
-      </c>
-      <c r="I29" s="45">
-        <v>0</v>
-      </c>
-      <c r="J29" s="45">
+      <c r="J29" s="51">
         <v>1</v>
       </c>
-      <c r="K29" s="45">
-        <v>0</v>
-      </c>
-      <c r="L29" s="45">
-        <v>0</v>
-      </c>
-      <c r="M29" s="45">
-        <v>0</v>
-      </c>
-      <c r="N29" s="45">
-        <v>0</v>
-      </c>
-      <c r="O29" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
+      <c r="K29" s="51">
+        <v>1</v>
+      </c>
+      <c r="L29" s="51">
+        <v>1</v>
+      </c>
+      <c r="M29" s="51">
+        <v>1</v>
+      </c>
+      <c r="N29" s="51">
+        <v>1</v>
+      </c>
+      <c r="O29" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="4" customFormat="1" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="12"/>
-    </row>
-    <row r="31" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="42"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="59">
-        <f>1-D29</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="59">
-        <f t="shared" ref="E31:O31" si="6">1-E29</f>
-        <v>1</v>
-      </c>
-      <c r="F31" s="59">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G31" s="59">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H31" s="59">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="I31" s="59">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J31" s="59">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="59">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="L31" s="59">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M31" s="59">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="N31" s="59">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O31" s="59">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="2:17" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="1:17" s="4" customFormat="1" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="47"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="70"/>
+    </row>
+    <row r="32" spans="1:17" s="4" customFormat="1" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="51"/>
-      <c r="Q33" s="56" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="57"/>
+      <c r="Q33" s="65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="57" t="s">
+    <row r="34" spans="2:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="52">
-        <f>D14-D31*$Q$27</f>
-        <v>2.8284271247461903</v>
-      </c>
-      <c r="E34" s="52">
-        <f t="shared" ref="E34:O34" si="7">E14-E31*$Q$27</f>
-        <v>-32.189750324093346</v>
-      </c>
-      <c r="F34" s="52">
-        <f t="shared" si="7"/>
-        <v>-26.107556010550198</v>
-      </c>
-      <c r="G34" s="52">
-        <f t="shared" si="7"/>
-        <v>-21.560911085414226</v>
-      </c>
-      <c r="H34" s="52">
-        <f t="shared" si="7"/>
-        <v>-22.279954853330651</v>
-      </c>
-      <c r="I34" s="52">
-        <f t="shared" si="7"/>
-        <v>-18.529089446416112</v>
-      </c>
-      <c r="J34" s="52">
-        <f t="shared" si="7"/>
-        <v>22.203603311174518</v>
-      </c>
-      <c r="K34" s="52">
-        <f t="shared" si="7"/>
-        <v>-14.701778718652964</v>
-      </c>
-      <c r="L34" s="52">
-        <f t="shared" si="7"/>
-        <v>-11.557074693344216</v>
-      </c>
-      <c r="M34" s="52">
-        <f t="shared" si="7"/>
-        <v>-8.2195028358585915</v>
-      </c>
-      <c r="N34" s="52">
-        <f t="shared" si="7"/>
-        <v>-6.4738907715195779</v>
-      </c>
-      <c r="O34" s="52">
-        <f t="shared" si="7"/>
-        <v>-4.3068634048505032</v>
-      </c>
-      <c r="Q34" s="55">
-        <f>MAX(D34:O35)</f>
-        <v>35.693136595149497</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="58" t="s">
+      <c r="C34" s="54"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="62"/>
+      <c r="Q34" s="71"/>
+    </row>
+    <row r="35" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="53">
-        <f>D24-D29*$Q$27</f>
-        <v>-37.171572875253808</v>
-      </c>
-      <c r="E35" s="53">
-        <f t="shared" ref="E35:O35" si="8">E24-E29*$Q$27</f>
-        <v>7.810249675906654</v>
-      </c>
-      <c r="F35" s="53">
-        <f t="shared" si="8"/>
-        <v>13.892443989449804</v>
-      </c>
-      <c r="G35" s="53">
-        <f t="shared" si="8"/>
-        <v>18.439088914585774</v>
-      </c>
-      <c r="H35" s="53">
-        <f t="shared" si="8"/>
-        <v>17.720045146669349</v>
-      </c>
-      <c r="I35" s="53">
-        <f t="shared" si="8"/>
-        <v>21.470910553583888</v>
-      </c>
-      <c r="J35" s="53">
-        <f t="shared" si="8"/>
-        <v>-17.796396688825482</v>
-      </c>
-      <c r="K35" s="53">
-        <f t="shared" si="8"/>
-        <v>25.298221281347036</v>
-      </c>
-      <c r="L35" s="53">
-        <f t="shared" si="8"/>
-        <v>28.442925306655784</v>
-      </c>
-      <c r="M35" s="53">
-        <f t="shared" si="8"/>
-        <v>31.780497164141408</v>
-      </c>
-      <c r="N35" s="53">
-        <f t="shared" si="8"/>
-        <v>33.526109228480422</v>
-      </c>
-      <c r="O35" s="53">
-        <f t="shared" si="8"/>
-        <v>35.693136595149497</v>
-      </c>
-      <c r="Q35" s="54"/>
-    </row>
-    <row r="36" spans="2:17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="59"/>
+      <c r="Q35" s="64"/>
+    </row>
+    <row r="36" spans="2:17" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2450,12 +2758,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2464,37 +2766,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05E71C55-ADB4-4D3C-B254-F0E3C21DEE17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1b3eaf43-3944-415b-8ede-38978c3c5a7d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{429BC321-7B3A-4072-A10F-3A9A07EAFAA5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8153B8B-EBED-4BFB-816B-12BEB7544700}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE07CC4C-5CA0-4004-9B19-7C751AC9E5AC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA4797DB-BE94-4AB1-9277-80478DF8D232}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A1BD623-8366-4E52-8390-EBBED017F5AB}"/>
 </file>